--- a/USA/state/data/cod/GHE cause_list_icd_codes_updated10August2016_elife.xlsx
+++ b/USA/state/data/cod/GHE cause_list_icd_codes_updated10August2016_elife.xlsx
@@ -6380,8 +6380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
